--- a/학습자료/단답형/객관식_영어_단어_Day09.xlsx
+++ b/학습자료/단답형/객관식_영어_단어_Day09.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,8 +449,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>discern
-1. 보충의, 보충하는
-2. 버리다
+1. 눈에 띄다, 인상적이다
+2. 강화하다
 3. 식별하다, 구별하다</t>
         </is>
       </c>
@@ -464,119 +464,119 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>distinguish
-1. 낙관적인
+1. 낙담시키다
+2. 식별하다, 구별하다
+3. 약화시키다</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2, 식별하다, 구별하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>differentiate
+1. 눈에 띄다, 인상적이다
+2. 식별하다, 구별하다
+3. 압도하다</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2, 식별하다, 구별하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>discriminate
+1. 약화시키다
+2. 낙담시키다
+3. 식별하다, 구별하다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3, 식별하다, 구별하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>identify
+1. 식별하다, 구별하다
+2. 압도하다
+3. 강화하다</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1, 식별하다, 구별하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>demarcate
+1. 압도하다
+2. 식별하다, 구별하다
+3. 강제적인</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2, 식별하다, 구별하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>strengthen
+1. 강화하다
+2. 눈에 띄다, 인상적이다
+3. 식별하다, 구별하다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1, 강화하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>toughen
+1. 식별하다, 구별하다
+2. 보충의, 보충하는
+3. 강화하다</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3, 강화하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>heighten
+1. 강화하다
 2. 압도하다
 3. 식별하다, 구별하다</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3, 식별하다, 구별하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>differentiate
-1. 식별하다, 구별하다
-2. 낙담시키다
-3. 보충의, 보충하는</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1, 식별하다, 구별하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>discriminate
-1. 눈에 띄다, 인상적이다
-2. 강제적인
-3. 식별하다, 구별하다</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3, 식별하다, 구별하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>identify
-1. 식별하다, 구별하다
-2. 낙담시키다
-3. 눈에 띄다, 인상적이다</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1, 식별하다, 구별하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>demarcate
-1. 식별하다, 구별하다
-2. 강제적인
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1, 식별하다, 구별하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>strengthen
-1. 강화하다
-2. 버리다
-3. 눈에 띄다, 인상적이다</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>1, 강화하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>toughen
-1. 낙담시키다
-2. 강화하다
-3. 보충의, 보충하는</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2, 강화하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>heighten
-1. 눈에 띄다, 인상적이다
-2. 강제적인
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, 강화하다</t>
         </is>
       </c>
     </row>
@@ -584,8 +584,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>intensify
-1. 낙담시키다
-2. 식별하다, 구별하다
+1. 압도하다
+2. 눈에 띄다, 인상적이다
 3. 강화하다</t>
         </is>
       </c>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>aggrandize
-1. 버리다
-2. 강화하다
+1. 강화하다
+2. 강제적인
 3. 낙관적인</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 강화하다</t>
+          <t>1, 강화하다</t>
         </is>
       </c>
     </row>
@@ -614,8 +614,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>undermine
-1. 압도하다
-2. 낙관적인
+1. 버리다
+2. 낙담시키다
 3. 약화시키다</t>
         </is>
       </c>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>weaken
-1. 압도하다
-2. 약화시키다
-3. 눈에 띄다, 인상적이다</t>
+1. 약화시키다
+2. 낙담시키다
+3. 낙관적인</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2, 약화시키다</t>
+          <t>1, 약화시키다</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>blunt
-1. 강제적인
-2. 약화시키다
-3. 강화하다</t>
+1. 버리다
+2. 보충의, 보충하는
+3. 약화시키다</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 약화시키다</t>
+          <t>3, 약화시키다</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>diminish
-1. 낙담시키다
-2. 약화시키다
-3. 식별하다, 구별하다</t>
+1. 약화시키다
+2. 압도하다
+3. 낙담시키다</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 약화시키다</t>
+          <t>1, 약화시키다</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>attenuate
-1. 버리다
-2. 약화시키다
-3. 낙관적인</t>
+1. 약화시키다
+2. 식별하다, 구별하다
+3. 보충의, 보충하는</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2, 약화시키다</t>
+          <t>1, 약화시키다</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
           <t>abandon
 1. 버리다
 2. 낙담시키다
-3. 눈에 띄다, 인상적이다</t>
+3. 식별하다, 구별하다</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -704,9 +704,9 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>desert
-1. 강제적인
+1. 식별하다, 구별하다
 2. 버리다
-3. 보충의, 보충하는</t>
+3. 강제적인</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -719,8 +719,8 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>forsake
-1. 강제적인
-2. 약화시키다
+1. 강화하다
+2. 낙관적인
 3. 버리다</t>
         </is>
       </c>
@@ -734,9 +734,9 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>renounce
-1. 눈에 띄다, 인상적이다
+1. 낙관적인
 2. 버리다
-3. 압도하다</t>
+3. 강제적인</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>leave
-1. 버리다
+1. 낙관적인
 2. 강제적인
-3. 압도하다</t>
+3. 버리다</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 버리다</t>
+          <t>3, 버리다</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>stand out
-1. 식별하다, 구별하다
-2. 눈에 띄다, 인상적이다
-3. 보충의, 보충하는</t>
+1. 보충의, 보충하는
+2. 압도하다
+3. 눈에 띄다, 인상적이다</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2, 눈에 띄다, 인상적이다</t>
+          <t>3, 눈에 띄다, 인상적이다</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>be impressive
-1. 눈에 띄다, 인상적이다
-2. 압도하다
-3. 약화시키다</t>
+1. 보충의, 보충하는
+2. 강제적인
+3. 눈에 띄다, 인상적이다</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1, 눈에 띄다, 인상적이다</t>
+          <t>3, 눈에 띄다, 인상적이다</t>
         </is>
       </c>
     </row>
@@ -794,9 +794,9 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>stick out
-1. 보충의, 보충하는
+1. 낙관적인
 2. 눈에 띄다, 인상적이다
-3. 약화시키다</t>
+3. 강제적인</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -810,8 +810,8 @@
         <is>
           <t>outstand
 1. 눈에 띄다, 인상적이다
-2. 낙관적인
-3. 보충의, 보충하는</t>
+2. 약화시키다
+3. 강제적인</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -825,8 +825,8 @@
         <is>
           <t>overwhelm
 1. 압도하다
-2. 낙담시키다
-3. 낙관적인</t>
+2. 보충의, 보충하는
+3. 약화시키다</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -839,249 +839,249 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>overcome
+1. 보충의, 보충하는
+2. 압도하다
+3. 버리다</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2, 압도하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>overpower
+1. 강제적인
+2. 강화하다
+3. 압도하다</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3, 압도하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>prevail
+1. 약화시키다
+2. 압도하다
+3. 식별하다, 구별하다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2, 압도하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>devastate
 1. 낙관적인
 2. 압도하다
 3. 강화하다</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2, 압도하다</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>overpower
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>dominate
+1. 낙관적인
+2. 압도하다
+3. 버리다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2, 압도하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>predominate
 1. 압도하다
-2. 보충의, 보충하는
-3. 버리다</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
+2. 낙담시키다
+3. 약화시키다</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>1, 압도하다</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>prevail
-1. 압도하다
-2. 낙관적인
-3. 눈에 띄다, 인상적이다</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1, 압도하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>devastate
-1. 강제적인
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>daunt
+1. 낙담시키다
+2. 압도하다
+3. 보충의, 보충하는</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2, 압도하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>depress
+1. 약화시키다
 2. 압도하다
 3. 낙담시키다</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2, 압도하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>dominate
-1. 눈에 띄다, 인상적이다
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3, 낙담시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>discourage
+1. 낙담시키다
+2. 강화하다
+3. 약화시키다</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1, 낙담시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>deject
+1. 식별하다, 구별하다
 2. 압도하다
 3. 낙담시키다</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2, 압도하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>predominate
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3, 낙담시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>dismay
 1. 눈에 띄다, 인상적이다
-2. 압도하다
+2. 낙담시키다
 3. 보충의, 보충하는</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2, 압도하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>daunt
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2, 낙담시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>dispirt
+1. 강제적인
+2. 낙담시키다
+3. 버리다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2, 낙담시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>optimistic
+1. 강제적인
+2. 낙관적인
+3. 낙담시키다</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2, 낙관적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sanguine
+1. 강화하다
+2. 강제적인
+3. 낙관적인</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 낙관적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>upbeat
+1. 낙관적인
+2. 식별하다, 구별하다
+3. 눈에 띄다, 인상적이다</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 낙관적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>bullish
+1. 보충의, 보충하는
+2. 낙관적인
+3. 약화시키다</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2, 낙관적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>rosy
 1. 낙담시키다
 2. 낙관적인
-3. 압도하다</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3, 압도하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>depress
-1. 낙관적인
-2. 낙담시키다
 3. 버리다</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2, 낙담시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>discourage
-1. 낙관적인
-2. 강제적인
-3. 낙담시키다</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3, 낙담시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>deject
-1. 낙담시키다
-2. 낙관적인
-3. 약화시키다</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1, 낙담시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>dismay
-1. 약화시키다
-2. 식별하다, 구별하다
-3. 낙담시키다</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3, 낙담시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>dispirt
-1. 낙담시키다
-2. 보충의, 보충하는
-3. 낙관적인</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1, 낙담시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>optimistic
-1. 식별하다, 구별하다
-2. 버리다
-3. 낙관적인</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>3, 낙관적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>sanguine
-1. 강제적인
-2. 낙관적인
-3. 눈에 띄다, 인상적이다</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2, 낙관적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>upbeat
-1. 약화시키다
-2. 버리다
-3. 낙관적인</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>3, 낙관적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>bullish
-1. 낙관적인
-2. 약화시키다
-3. 낙담시키다</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1, 낙관적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>rosy
-1. 약화시키다
-2. 낙관적인
-3. 강화하다</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1094,26 +1094,26 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>compulsory
-1. 압도하다
-2. 강제적인
-3. 버리다</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2, 강제적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>mandatory
 1. 낙관적인
 2. 강제적인
 3. 눈에 띄다, 인상적이다</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2, 강제적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>mandatory
+1. 낙담시키다
+2. 강제적인
+3. 낙관적인</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>2, 강제적인</t>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>obligatory
-1. 강제적인
-2. 강화하다
-3. 낙담시키다</t>
+1. 식별하다, 구별하다
+2. 강제적인
+3. 버리다</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1, 강제적인</t>
+          <t>2, 강제적인</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>enforced
-1. 낙담시키다
-2. 버리다
-3. 강제적인</t>
+1. 강제적인
+2. 낙담시키다
+3. 보충의, 보충하는</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3, 강제적인</t>
+          <t>1, 강제적인</t>
         </is>
       </c>
     </row>
@@ -1154,14 +1154,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>coercive
-1. 강제적인
-2. 약화시키다
-3. 강화하다</t>
+1. 보충의, 보충하는
+2. 강제적인
+3. 낙관적인</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1, 강제적인</t>
+          <t>2, 강제적인</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>complementary
-1. 눈에 띄다, 인상적이다
-2. 낙관적인
-3. 보충의, 보충하는</t>
+1. 보충의, 보충하는
+2. 식별하다, 구별하다
+3. 압도하다</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3, 보충의, 보충하는</t>
+          <t>1, 보충의, 보충하는</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>supplementary
-1. 보충의, 보충하는
-2. 압도하다
-3. 눈에 띄다, 인상적이다</t>
+1. 강제적인
+2. 보충의, 보충하는
+3. 버리다</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1, 보충의, 보충하는</t>
+          <t>2, 보충의, 보충하는</t>
         </is>
       </c>
     </row>
@@ -1199,14 +1199,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>redeeming
-1. 보충의, 보충하는
-2. 낙담시키다
-3. 낙관적인</t>
+1. 낙담시키다
+2. 보충의, 보충하는
+3. 눈에 띄다, 인상적이다</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1, 보충의, 보충하는</t>
+          <t>2, 보충의, 보충하는</t>
         </is>
       </c>
     </row>
